--- a/Leaflet/DataCities.xlsx
+++ b/Leaflet/DataCities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xufe\Dropbox\Rpg\Leaflet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\###Orbis\Leaflet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAA4265-1909-4333-80BA-4D1E6F339BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D17ED7D-CC24-4580-B14C-C93285E40C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3BFC7E1-498C-417E-97D2-75042B1792AE}"/>
+    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" xr2:uid="{A3BFC7E1-498C-417E-97D2-75042B1792AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -282,9 +282,6 @@
     <t>Ska'en</t>
   </si>
   <si>
-    <t>die-orks-vom-grimgrod.html</t>
-  </si>
-  <si>
     <t>Westwasser</t>
   </si>
   <si>
@@ -469,6 +466,9 @@
   </si>
   <si>
     <t>Ende der Welt</t>
+  </si>
+  <si>
+    <t>https://svalv.github.io/Orbis/die-orks-vom-grimgrod.html</t>
   </si>
 </sst>
 </file>
@@ -840,16 +840,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.46875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -878,7 +878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -904,10 +904,10 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -936,7 +936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -959,7 +959,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -985,10 +985,10 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1106,10 +1106,10 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1423,10 +1423,10 @@
         <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1532,10 +1532,10 @@
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E28">
         <v>22.69</v>
@@ -1544,13 +1544,13 @@
         <v>13.88</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="I28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1573,9 +1573,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1628,10 +1628,10 @@
         <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -1674,10 +1674,10 @@
         <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -1697,10 +1697,10 @@
         <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1726,10 +1726,10 @@
         <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1755,12 +1755,12 @@
         <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="1">
         <v>43000</v>
@@ -1787,9 +1787,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -1813,12 +1813,12 @@
         <v>12</v>
       </c>
       <c r="I38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B39" s="1">
         <v>12000</v>
@@ -1845,9 +1845,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40" s="1">
         <v>6500</v>
@@ -1874,7 +1874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -1900,10 +1900,10 @@
         <v>12</v>
       </c>
       <c r="I41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -1929,9 +1929,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" s="1">
         <v>32000</v>
@@ -1958,9 +1958,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44" s="1">
         <v>4800</v>
@@ -1987,9 +1987,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -2036,10 +2036,10 @@
         <v>79</v>
       </c>
       <c r="I46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>80000</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -2059,16 +2059,16 @@
         <v>7.01</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>65000</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2088,16 +2088,16 @@
         <v>8.75</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H48" t="s">
         <v>12</v>
       </c>
       <c r="I48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>30000</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
@@ -2117,7 +2117,7 @@
         <v>8.5299999999999994</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H49" t="s">
         <v>12</v>
@@ -2126,7 +2126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>140000</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
@@ -2146,16 +2146,16 @@
         <v>7.79</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H50" t="s">
         <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>500000</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
@@ -2175,16 +2175,16 @@
         <v>6.38</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H51" t="s">
         <v>12</v>
       </c>
       <c r="I51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>95000</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -2204,16 +2204,16 @@
         <v>3.57</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H52" t="s">
         <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>180000</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -2233,24 +2233,24 @@
         <v>5.09</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H53" t="s">
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54">
         <v>800000</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -2262,16 +2262,16 @@
         <v>3.11</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H54" t="s">
         <v>12</v>
       </c>
       <c r="I54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>90000</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -2291,16 +2291,16 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H55" t="s">
         <v>12</v>
       </c>
       <c r="I55" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
         <v>74</v>
@@ -2323,7 +2323,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>500</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -2343,10 +2343,10 @@
         <v>12</v>
       </c>
       <c r="I57" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -2354,33 +2354,33 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I58" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B59">
         <v>8000</v>
       </c>
       <c r="C59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" t="s">
         <v>90</v>
-      </c>
-      <c r="D59" t="s">
-        <v>91</v>
       </c>
       <c r="E59">
         <v>14.96</v>
@@ -2390,24 +2390,24 @@
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I59" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B60" s="1">
         <v>2800000</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E60">
         <v>3.8</v>
@@ -2416,27 +2416,27 @@
         <v>14.79</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I60" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B61" s="1">
         <v>1400000</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E61">
         <v>6.32</v>
@@ -2445,27 +2445,27 @@
         <v>12.49</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I61" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B62" s="1">
         <v>1872000</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E62">
         <v>15.84</v>
@@ -2474,28 +2474,28 @@
         <v>23.86</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" s="1">
         <v>340000</v>
       </c>
       <c r="C63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" t="s">
         <v>114</v>
-      </c>
-      <c r="D63" t="s">
-        <v>115</v>
       </c>
       <c r="E63">
         <v>16.940000000000001</v>
@@ -2504,24 +2504,24 @@
         <v>28.88</v>
       </c>
       <c r="H63" t="s">
+        <v>115</v>
+      </c>
+      <c r="I63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A64" t="s">
         <v>116</v>
-      </c>
-      <c r="I63" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>117</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E64">
         <v>4.46</v>
@@ -2530,24 +2530,24 @@
         <v>22.8</v>
       </c>
       <c r="G64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D65" t="s">
         <v>74</v>
@@ -2559,24 +2559,24 @@
         <v>12.75</v>
       </c>
       <c r="G65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B66" s="1">
         <v>450000</v>
       </c>
       <c r="C66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E66">
         <v>23.04</v>
@@ -2585,27 +2585,27 @@
         <v>8.15</v>
       </c>
       <c r="G66" t="s">
+        <v>124</v>
+      </c>
+      <c r="H66" t="s">
         <v>125</v>
       </c>
-      <c r="H66" t="s">
-        <v>126</v>
-      </c>
       <c r="I66" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E67">
         <v>26</v>
@@ -2614,24 +2614,24 @@
         <v>6</v>
       </c>
       <c r="G67" t="s">
+        <v>124</v>
+      </c>
+      <c r="H67" t="s">
         <v>125</v>
-      </c>
-      <c r="H67" t="s">
-        <v>126</v>
       </c>
       <c r="I67" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B68" s="1">
         <v>230000</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -2643,24 +2643,24 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H68" t="s">
         <v>12</v>
       </c>
       <c r="I68" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E69">
         <v>23</v>
@@ -2669,24 +2669,24 @@
         <v>3.84</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I69" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B70" s="1">
         <v>48000</v>
       </c>
       <c r="C70" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" t="s">
         <v>90</v>
-      </c>
-      <c r="D70" t="s">
-        <v>91</v>
       </c>
       <c r="E70">
         <v>11.7</v>
@@ -2695,24 +2695,24 @@
         <v>16.78</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I70" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B71" s="1">
         <v>35000</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E71">
         <v>9.8699999999999992</v>
@@ -2721,24 +2721,24 @@
         <v>16.600000000000001</v>
       </c>
       <c r="G71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I71" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E72">
         <v>18.37</v>
@@ -2747,24 +2747,24 @@
         <v>18.263999999999999</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I72" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B73" s="1">
         <v>600</v>
       </c>
       <c r="C73" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" t="s">
         <v>90</v>
-      </c>
-      <c r="D73" t="s">
-        <v>91</v>
       </c>
       <c r="E73">
         <v>13.07</v>
@@ -2773,24 +2773,24 @@
         <v>20.734999999999999</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I73" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B74" s="1">
         <v>4000</v>
       </c>
       <c r="C74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E74">
         <v>14.36</v>
@@ -2799,24 +2799,24 @@
         <v>21.18</v>
       </c>
       <c r="H74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I74" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B75" s="1">
         <v>12000</v>
       </c>
       <c r="C75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E75">
         <v>2.15</v>
@@ -2825,27 +2825,27 @@
         <v>30.03</v>
       </c>
       <c r="G75" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I75" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B76" s="1">
         <v>250000</v>
       </c>
       <c r="C76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E76">
         <v>1.93</v>
@@ -2854,27 +2854,27 @@
         <v>19.28</v>
       </c>
       <c r="G76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B77" s="1">
         <v>11000</v>
       </c>
       <c r="C77" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" t="s">
         <v>140</v>
-      </c>
-      <c r="D77" t="s">
-        <v>141</v>
       </c>
       <c r="E77">
         <v>39.935000000000002</v>
@@ -2883,7 +2883,7 @@
         <v>24.896000000000001</v>
       </c>
       <c r="G77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I77" t="s">
         <v>41</v>
@@ -2935,12 +2935,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="11.41015625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -2972,15 +2972,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2988,22 +2988,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>64</v>
       </c>
